--- a/erm-generator-core/src/main/resources/templates/export_tables.xlsx
+++ b/erm-generator-core/src/main/resources/templates/export_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JavaProjects\erm-generator\erm-generator-core\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4EF0B-A8F0-4A24-830F-FB67CCD0C492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C9C08-CD0A-4571-8D0E-01B7C65602CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3885" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="3940" windowWidth="28800" windowHeight="15650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${idx.nonUnique}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${table.tableComment}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +361,10 @@
   </si>
   <si>
     <t>${tbuitl.countAt("tablesIndex")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${!idx.nonUnique}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,25 +1046,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1072,18 +1072,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1101,22 +1101,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1131,9 +1131,9 @@
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1144,7 +1144,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1202,8 +1202,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1217,15 +1217,15 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>

--- a/erm-generator-core/src/main/resources/templates/export_tables.xlsx
+++ b/erm-generator-core/src/main/resources/templates/export_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JavaProjects\erm-generator\erm-generator-core\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailuo/workspace/JavaProjects/erm-generator/erm-generator-core/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C9C08-CD0A-4571-8D0E-01B7C65602CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095B6F5-1300-8B4E-8230-5AECC4460915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="3940" windowWidth="28800" windowHeight="15650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1560" windowWidth="31860" windowHeight="18340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表清单" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>mi:</t>
@@ -43,6 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,6 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>mi:</t>
@@ -67,6 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,6 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -86,6 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>var="table"</t>
@@ -95,6 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -104,6 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lastCell="C3")</t>
@@ -128,6 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>mi:</t>
@@ -137,6 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -148,6 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -157,6 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>multisheet="</t>
@@ -166,6 +178,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>table.tableName</t>
@@ -175,6 +188,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>")</t>
@@ -187,8 +201,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>mi:</t>
@@ -196,12 +211,23 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="table.columns", var="col", lastCell="I4")</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="table.columns", var="col", lastCell="I4")</t>
         </r>
       </text>
     </comment>
@@ -211,8 +237,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>mi:</t>
@@ -220,12 +247,23 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="table.indexes", var="idx", lastCell="C7")</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="table.indexes", var="idx", lastCell="C7")</t>
         </r>
       </text>
     </comment>
@@ -320,22 +358,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${col.primaryKey}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${col.notNull}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${col.defaultValue}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${col.autoIncrement}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${idx.indexName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,7 +390,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${!idx.nonUnique}</t>
+    <t>${col.autoIncrement ? '*' : ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${col.notNull ? '*' : ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${col.primaryKey ? '*' : ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${!idx.nonUnique ? '*' : ''}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,19 +421,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -433,6 +459,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -442,6 +469,36 @@
       <color theme="10"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -698,59 +755,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,13 +812,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,40 +1112,40 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>27</v>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
+      <c r="B3" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1102,49 +1164,49 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1189,47 +1251,47 @@
       <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>24</v>
+      <c r="I4" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="24" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
